--- a/Tercer Semestre/Probabilidad y Estadística/Proyecto/COPIA - Registros-de-ventas.xlsx
+++ b/Tercer Semestre/Probabilidad y Estadística/Proyecto/COPIA - Registros-de-ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando_Huilca\Desktop\EPN-FernandoHuilca\Tercer Semestre\Probabilidad y Estadística\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E414437A-B107-4204-9298-3E6639044A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE490FDD-5B85-4C2D-9B8B-7678387A543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$1001</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$N$2:$N$1001</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$J$2:$J$1001</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$N$2:$N$1001</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$J$2:$J$1001</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$J$2:$J$1001</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$N$2:$N$1001</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7269" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7273" uniqueCount="1204">
   <si>
     <t>ID Cliente</t>
   </si>
@@ -3575,43 +3573,7 @@
     <t>=CONTAR.SI(C2:C1001,"MEXICO")</t>
   </si>
   <si>
-    <t xml:space="preserve">Frecuencia de Snacks = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Cárnicos = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Cereales = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Frutas = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Bebida = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Cosméticos = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Cuidado personal = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Material de oficina = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Verduras = </t>
-  </si>
-  <si>
     <t>Total =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Doméstico = </t>
-  </si>
-  <si>
-    <t>Frecuencia de Ropa =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia de Alimento infantil = </t>
   </si>
   <si>
     <t>La mas frecuente</t>
@@ -3697,6 +3659,39 @@
   </si>
   <si>
     <t>Lista de valores atípicos:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cárnicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frutas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimento infantil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bebida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosméticos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuidado personal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material de oficina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verduras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doméstico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snacks </t>
   </si>
 </sst>
 </file>
@@ -3809,7 +3804,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3888,7 +3883,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5215,8 +5210,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="27136531" y="2029408"/>
-              <a:ext cx="5252732" cy="4527019"/>
+              <a:off x="25542240" y="1992086"/>
+              <a:ext cx="5249933" cy="4433868"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5293,8 +5288,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33866666" y="1138296"/>
-              <a:ext cx="6481703" cy="4167482"/>
+              <a:off x="32357342" y="1163132"/>
+              <a:ext cx="6514064" cy="4255065"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5592,7 +5587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M56" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M58" zoomScale="79" workbookViewId="0">
       <selection activeCell="P58" sqref="P58:R91"/>
     </sheetView>
   </sheetViews>
@@ -5612,7 +5607,7 @@
     <col min="12" max="12" width="17.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.21875" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" customWidth="1"/>
     <col min="17" max="17" width="17.44140625" customWidth="1"/>
     <col min="18" max="18" width="17.33203125" customWidth="1"/>
   </cols>
@@ -5661,10 +5656,10 @@
         <v>13</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -5711,7 +5706,7 @@
         <v>31.79</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>1177</v>
+        <v>1203</v>
       </c>
       <c r="Q2">
         <f>COUNTIF(D2:D1001, "Snacks")</f>
@@ -5762,7 +5757,7 @@
         <v>117.64</v>
       </c>
       <c r="P3" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
       <c r="Q3">
         <f>COUNTIF(D2:D1001, "Cárnicos")</f>
@@ -5813,14 +5808,14 @@
         <v>795.8</v>
       </c>
       <c r="P4" t="s">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="Q4">
         <f>COUNTIF(D2:D1001, "Cereales")</f>
         <v>95</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -5867,7 +5862,7 @@
         <v>1397.84</v>
       </c>
       <c r="P5" t="s">
-        <v>1180</v>
+        <v>1195</v>
       </c>
       <c r="Q5">
         <f>COUNTIF(D2:D1001, "Frutas")</f>
@@ -5918,7 +5913,7 @@
         <v>2172.88</v>
       </c>
       <c r="P6" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="Q6" s="6">
         <f>COUNTIF(D2:D1001, "Alimento infantil")</f>
@@ -5969,7 +5964,7 @@
         <v>3079.4</v>
       </c>
       <c r="P7" t="s">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="Q7">
         <f>COUNTIF(D2:D1001, "Bebida")</f>
@@ -6020,7 +6015,7 @@
         <v>3349.2799999999997</v>
       </c>
       <c r="P8" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="Q8">
         <f>COUNTIF(D2:D1001, "Cosméticos")</f>
@@ -6071,7 +6066,7 @@
         <v>3646.9</v>
       </c>
       <c r="P9" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="Q9">
         <f>COUNTIF(D2:D1001, "Cuidado personal")</f>
@@ -6122,7 +6117,7 @@
         <v>4005.54</v>
       </c>
       <c r="P10" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
       <c r="Q10">
         <f>COUNTIF(D2:D1001, "Material de oficina")</f>
@@ -6173,7 +6168,7 @@
         <v>6331.8</v>
       </c>
       <c r="P11" t="s">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="Q11">
         <f>COUNTIF(D2:D1001, "Verduras")</f>
@@ -6224,7 +6219,7 @@
         <v>6441.05</v>
       </c>
       <c r="P12" t="s">
-        <v>1188</v>
+        <v>83</v>
       </c>
       <c r="Q12">
         <f>COUNTIF(D2:D1001, "Ropa")</f>
@@ -6275,7 +6270,7 @@
         <v>6558.72</v>
       </c>
       <c r="P13" t="s">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="Q13">
         <f>COUNTIF(D2:D1001, "Doméstico")</f>
@@ -6326,7 +6321,7 @@
         <v>6892.32</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="Q14" s="12">
         <f>SUM(Q2:Q13)</f>
@@ -6465,9 +6460,11 @@
         <v>8274.630000000001</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>1191</v>
-      </c>
-      <c r="Q17" s="10"/>
+        <v>1179</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6513,7 +6510,7 @@
         <v>8504.68</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>1177</v>
+        <v>1203</v>
       </c>
       <c r="Q18">
         <f>COUNTIF(D18:D1017, "Snacks")</f>
@@ -6564,7 +6561,7 @@
         <v>8829.92</v>
       </c>
       <c r="P19" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
       <c r="Q19">
         <f>COUNTIF(D18:D1017, "Cárnicos")</f>
@@ -6615,7 +6612,7 @@
         <v>8964.7800000000007</v>
       </c>
       <c r="P20" t="s">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="Q20">
         <f>COUNTIF(D18:D1017, "Cereales")</f>
@@ -6666,7 +6663,7 @@
         <v>9051.36</v>
       </c>
       <c r="P21" t="s">
-        <v>1180</v>
+        <v>32</v>
       </c>
       <c r="Q21">
         <f>COUNTIF(D18:D1017, "Frutas")</f>
@@ -6717,7 +6714,7 @@
         <v>10469.959999999999</v>
       </c>
       <c r="P22" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="Q22" s="6">
         <f>COUNTIF(D18:D1017, "Alimento infantil")</f>
@@ -6768,7 +6765,7 @@
         <v>10752.000000000002</v>
       </c>
       <c r="P23" t="s">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="Q23">
         <f>COUNTIF(D18:D1017, "Bebida")</f>
@@ -6819,7 +6816,7 @@
         <v>10753.68</v>
       </c>
       <c r="P24" t="s">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="Q24">
         <f>COUNTIF(D15:D1014, "Verduras")</f>
@@ -6870,14 +6867,14 @@
         <v>10760.6</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="Q25" s="12">
         <f>SUM(Q18:Q24)</f>
         <v>587</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -6968,9 +6965,11 @@
         <v>12042.240000000002</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Q27" s="10"/>
+        <v>1181</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -7016,7 +7015,7 @@
         <v>12220.72</v>
       </c>
       <c r="P28" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="Q28">
         <f>COUNTIF(D22:D1021, "Cosméticos")</f>
@@ -7067,7 +7066,7 @@
         <v>12407.56</v>
       </c>
       <c r="P29" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="Q29">
         <f>COUNTIF(D22:D1021, "Cuidado personal")</f>
@@ -7118,7 +7117,7 @@
         <v>13192.85</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="Q30" s="12">
         <f>SUM(Q28:Q29)</f>
@@ -7213,9 +7212,11 @@
         <v>13548.570000000002</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>1197</v>
-      </c>
-      <c r="Q32" s="10"/>
+        <v>1185</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -7261,11 +7262,10 @@
         <v>13653.16</v>
       </c>
       <c r="P33" t="s">
-        <v>1188</v>
+        <v>83</v>
       </c>
       <c r="Q33">
-        <f>COUNTIF(D23:D1022, "Ropa")</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -7312,7 +7312,7 @@
         <v>14945.28</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="Q34" s="13">
         <v>78</v>
@@ -7406,9 +7406,11 @@
         <v>16289.68</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="Q36" s="10"/>
+        <v>1186</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -7454,7 +7456,7 @@
         <v>18483.32</v>
       </c>
       <c r="P37" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
       <c r="Q37">
         <v>80</v>
@@ -7504,7 +7506,7 @@
         <v>19258.36</v>
       </c>
       <c r="P38" t="s">
-        <v>1187</v>
+        <v>93</v>
       </c>
       <c r="Q38">
         <v>83</v>
@@ -7554,7 +7556,7 @@
         <v>19334.48</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="Q39" s="12">
         <f>SUM(Q37:Q38)</f>
@@ -7605,7 +7607,7 @@
         <v>19528.240000000002</v>
       </c>
       <c r="Y40" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -7652,7 +7654,7 @@
         <v>19984.96</v>
       </c>
       <c r="Y41" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
@@ -7699,7 +7701,7 @@
         <v>20004.600000000002</v>
       </c>
       <c r="Y42" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
@@ -8407,7 +8409,7 @@
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="R58" s="12"/>
     </row>
@@ -55907,6 +55909,59 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <AppVersion xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Invited_Teachers xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <LMS_Mappings xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Templates xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Teachers xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Student_Groups xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Has_Teacher_Only_SectionGroup xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <NotebookType xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Students xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Invited_Students xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <FolderType xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Owner xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <CultureName xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <TeamsChannelId xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Math_Settings xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+    <Distribution_Groups xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100310F9963C2A1E24AB03C9DE7610C1E98" ma:contentTypeVersion="39" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="eea9035b8e4b2f343b0546008ef1a687">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cf5b41f1-6097-4776-8db8-9bc9a73b3b29" xmlns:ns4="247fe7c1-cdd2-4f03-add8-4410ed92241e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e377d2fda65c229acaed5108861b2b23" ns3:_="" ns4:_="">
     <xsd:import namespace="cf5b41f1-6097-4776-8db8-9bc9a73b3b29"/>
@@ -56353,59 +56408,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <AppVersion xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Invited_Teachers xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <LMS_Mappings xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Templates xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Teachers xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Student_Groups xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Has_Teacher_Only_SectionGroup xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <NotebookType xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Students xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Invited_Students xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <FolderType xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Owner xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <CultureName xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <TeamsChannelId xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Math_Settings xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-    <Distribution_Groups xmlns="247fe7c1-cdd2-4f03-add8-4410ed92241e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE09D59-AF0B-4EA6-8CAA-6886E1C45926}">
   <ds:schemaRefs>
@@ -56415,6 +56417,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3838C7C-FED5-46A9-8DE5-D5D0652D001C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="247fe7c1-cdd2-4f03-add8-4410ed92241e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15252C9C-87C5-45D5-A842-D6C0161979C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56431,14 +56443,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3838C7C-FED5-46A9-8DE5-D5D0652D001C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="247fe7c1-cdd2-4f03-add8-4410ed92241e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>